--- a/get_email_data/novos_laudos.xlsx
+++ b/get_email_data/novos_laudos.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labreu\Documents\automatizacao-laudos-python\get_email_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E06AA-C69B-4E3E-9C21-252CB7F47B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Nome Cliente</t>
   </si>
@@ -55,68 +49,41 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>Paulo Bichucher</t>
-  </si>
-  <si>
-    <t>Daniel Oliveira</t>
-  </si>
-  <si>
-    <t>Rua Joaquim Antunes</t>
-  </si>
-  <si>
-    <t>Rua Itamoji</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 514</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>apto Duplex 41</t>
-  </si>
-  <si>
-    <t>Pinheiros</t>
-  </si>
-  <si>
-    <t>Vila Boacava</t>
-  </si>
-  <si>
-    <t>5415011_x000D_</t>
-  </si>
-  <si>
-    <t>5170060_x000D_</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>SP_x000D_</t>
-  </si>
-  <si>
-    <t>Apartamento</t>
-  </si>
-  <si>
-    <t>Casa De Condomínio</t>
-  </si>
-  <si>
-    <t>X2UWWYJ</t>
-  </si>
-  <si>
-    <t>8YCS4VX</t>
-  </si>
-  <si>
-    <t>Pinheiros é um distrito situado na zona oeste do município de São Paulo e é administrado pela subprefeitura de Pinheiros, tido por alguns historiadores como um dos mais antigos distritos paulistanos, serviu por muito tempo como passagem dos tropeiros para a atual Região Sul do Brasil.  A área do distrito é limitada pelo Rio Pinheiros, Av. Prof. Frederico Herman Júnior, R. Natingui, R. Heitor de Andrade, caminho de pedestres entre a R. Heitor de Andrade e a R. Cristóvão de Burgos, R.Paulistânia, R. Heitor Penteado, Av. Dr. Arnaldo, Av. Paulo VI, R. Henrique Schaumann, início da Av. Brasil, Al. Gabriel Monteiro da Silva, R. Groenlândia, Av. Nove de Julho, Av. Cidade Jardim, até chegar novamente ao Rio Pinheiros.É um dos mais sofisticados distritos do município, tem intensa vida cultural e gastronômica. Entre as etnias estrangeiras predominantes no distrito destacam-se os alemães, italianos, judeus, franceses, portugueses, japoneses, chineses e coreanos. Entre os imigrantes brasileiros destacam-se os cariocas, em especial na região da Rua Fradique Coutinho.</t>
-  </si>
-  <si>
-    <t>Alto de Pinheiros é um distrito situado na zona oeste do município de São Paulo e é administrado pela subprefeitura de Pinheiros, em região ainda compreendida pelo centro expandido da capital. O distrito é atendido pela linha 9 da CPTM nas estações Villa Lobos-Jaguaré e Cidade Universitária.</t>
+    <t>Leticia De Lima Purificação</t>
+  </si>
+  <si>
+    <t>Rua Vitório</t>
+  </si>
+  <si>
+    <t>Favall</t>
+  </si>
+  <si>
+    <t>Vila Maria de Maggi</t>
+  </si>
+  <si>
+    <t>8680120_x000D_</t>
+  </si>
+  <si>
+    <t>Suzano</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Casa Residencial</t>
+  </si>
+  <si>
+    <t>2A4JF4Q</t>
+  </si>
+  <si>
+    <t>Não foi encontrado nada sobre esse bairro no Wikpedia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,19 +146,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,16 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -562,69 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/get_email_data/novos_laudos.xlsx
+++ b/get_email_data/novos_laudos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Nome Cliente</t>
   </si>
@@ -49,34 +49,136 @@
     <t>Observações</t>
   </si>
   <si>
+    <t>Endereço Completo</t>
+  </si>
+  <si>
+    <t>Leticia Maria Pereira Rodrigues</t>
+  </si>
+  <si>
     <t>Leticia De Lima Purificação</t>
   </si>
   <si>
-    <t>Rua Vitório</t>
-  </si>
-  <si>
-    <t>Favall</t>
+    <t>Gabriel Felipe Guimarães Coutinho Cortez</t>
+  </si>
+  <si>
+    <t>Sandra Ferreira Portugal Moura</t>
+  </si>
+  <si>
+    <t>Alameda Dos Guainumbis</t>
+  </si>
+  <si>
+    <t>Rua Vitório Favalli</t>
+  </si>
+  <si>
+    <t>Sds Bloco F E G</t>
+  </si>
+  <si>
+    <t>Rua Guilherme De Almeida</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Lote 41 S/n</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>edificio Eldorado Sala 609</t>
+  </si>
+  <si>
+    <t>apto 602</t>
+  </si>
+  <si>
+    <t>Alameda dos Guainumbis - Planalto Paulista</t>
   </si>
   <si>
     <t>Vila Maria de Maggi</t>
   </si>
   <si>
-    <t>8680120_x000D_</t>
+    <t>Asa Sul</t>
+  </si>
+  <si>
+    <t>Santo Antônio</t>
+  </si>
+  <si>
+    <t>4067000</t>
+  </si>
+  <si>
+    <t>8680120</t>
+  </si>
+  <si>
+    <t>70392900</t>
+  </si>
+  <si>
+    <t>30350230</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
   </si>
   <si>
     <t>Suzano</t>
   </si>
   <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
     <t>SP</t>
   </si>
   <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
     <t>Casa Residencial</t>
   </si>
   <si>
+    <t>Sala Comercial</t>
+  </si>
+  <si>
+    <t>Apartamento</t>
+  </si>
+  <si>
+    <t>44YX64N</t>
+  </si>
+  <si>
     <t>2A4JF4Q</t>
   </si>
   <si>
+    <t>HNXQSGX</t>
+  </si>
+  <si>
+    <t>HEGLGUH</t>
+  </si>
+  <si>
     <t>Não foi encontrado nada sobre esse bairro no Wikpedia</t>
+  </si>
+  <si>
+    <t>Brasília (AFI: /bɾaˈziljɐ/ ou AFI: /bɾaˈziʎɐ/) é a capital federal do Brasil e a sede de governo do Distrito Federal. A capital está localizada na região Centro-Oeste do país, ao longo da região geográfica conhecida como Planalto Central. Segundo estimativa do Instituto Brasileiro de Geografia e Estatística (IBGE) para 2018, sua população era de 2 974 703 habitantes (4 284 676 em sua área metropolitana), sendo, então, a terceira cidade mais populosa do país. Brasília é também a quinta concentração urbana mais populosa do Brasil. A capital brasileira é a maior cidade do mundo construída no século XX.A cidade possui o maior produto interno bruto per capita em relação às capitais, o quarto maior entre as principais cidades da América Latina e cerca de três vezes maior que a renda média brasileira. Como capital nacional, Brasília abriga a sede dos três poderes da República (Executivo, Legislativo e Judiciário) e 127 embaixadas estrangeiras. A política de planejamento da cidade, como a localização de prédios residenciais em grandes áreas urbanas, a construção da cidade através de enormes avenidas e a sua divisão em setores, tem provocado debates sobre o estilo de vida nas grandes cidades no século XX. O projeto da cidade a divide em blocos numerados, além de setores para atividades pré-determinadas, como o Setor Hoteleiro, Bancário ou de Embaixadas.</t>
+  </si>
+  <si>
+    <t>Esta é uma lista contendo os todos os bairros e territórios do município de Belo Horizonte, capital do estado de Minas Gerais. Conforme levantamento da Embrapa no "trabalho de identificação, mapeamento e quantificação das áreas urbanas do Brasil", em 2015 Belo Horizonte possuía area urbana de 314 km². Assim, considerando a área total do município, que é de 331 km², em relação a sua área urbana, o município tem 95% de seu território urbanizado.Segundo informações da a prefeitura da cidade, em 2021 Belo Horizonte possui ao todo 487 bairros, onde estão distribuidos 15.992 logradouros, dentro os quais há exatamente 11.479 ruas.  Os demais tipos de logradoruros incluem avenidas, estradas, túneis, becos, dentre outros, sendo que destes, os becos totalizam 2.635, número em constante constante alteração a medida em que novas ocupações vão sendo descobertas no município.</t>
+  </si>
+  <si>
+    <t>Alameda Dos Guainumbis 261-</t>
+  </si>
+  <si>
+    <t>Rua Vitório Favalli 57-</t>
+  </si>
+  <si>
+    <t>Sds Bloco F E G Lote Lote 41 S/n-edificio Eldorado Sala 609</t>
+  </si>
+  <si>
+    <t>Rua Guilherme De Almeida 456-apto 602</t>
   </si>
 </sst>
 </file>
@@ -434,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,40 +576,204 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
